--- a/Los_Angeles_Clippers_2025-26_stats.xlsx
+++ b/Los_Angeles_Clippers_2025-26_stats.xlsx
@@ -9,8 +9,12 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assists" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rebounds" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3PM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1850,7 +1854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,173 +1865,693 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Player</t>
+          <t>Game Time (PST)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Points</t>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Bradley Beal</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>James Harden</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Kawhi Leonard</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Chris Paul</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Kobe Sanders</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Derrick Jones Jr.</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Kris Dunn</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Bogdan Bogdanović</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Brook Lopez</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Cam Christie</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Yanic Konan Niederhäuser</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Jahmyl Telfort</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>John Collins</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Kobe Brown</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Nicolas Batum</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Ivica Zubac</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>24.33333333333333</v>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>James Harden</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>23.44444444444444</v>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ivica Zubac</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>14.9</v>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>John Collins</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>12.9</v>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>7</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Derrick Jones Jr.</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10.8</v>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8.166666666666666</v>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kris Dunn</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.6</v>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Brook Lopez</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7.2</v>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bogdan Bogdanović</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6.25</v>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cam Christie</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Yanic Konan Niederhäuser</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Nicolas Batum</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Chris Paul</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Kobe Brown</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2.166666666666667</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Kobe Sanders</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Jahmyl Telfort</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.3333333333333333</v>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>7</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2036,6 +2560,717 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Bradley Beal</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>James Harden</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Kawhi Leonard</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Chris Paul</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Kobe Sanders</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Derrick Jones Jr.</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Kris Dunn</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Bogdan Bogdanović</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Brook Lopez</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Cam Christie</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Yanic Konan Niederhäuser</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Jahmyl Telfort</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>John Collins</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Kobe Brown</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Nicolas Batum</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Ivica Zubac</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2057,13 +3292,204 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Assists</t>
+          <t>Avg Points</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Kawhi Leonard</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>24.33333333333333</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>James Harden</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>23.44444444444444</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ivica Zubac</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>John Collins</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Derrick Jones Jr.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bradley Beal</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8.166666666666666</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Kris Dunn</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Brook Lopez</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Bogdan Bogdanović</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cam Christie</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Yanic Konan Niederhäuser</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Nicolas Batum</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chris Paul</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Kobe Brown</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2.166666666666667</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Kobe Sanders</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Jahmyl Telfort</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Assists</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>James Harden</t>
         </is>
       </c>
@@ -2219,6 +3645,388 @@
       </c>
       <c r="B17" t="n">
         <v>0.3333333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Rebounds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ivica Zubac</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kawhi Leonard</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>James Harden</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5.222222222222222</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>John Collins</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bogdan Bogdanović</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Kris Dunn</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Nicolas Batum</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Brook Lopez</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Derrick Jones Jr.</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Kobe Brown</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.166666666666667</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cam Christie</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chris Paul</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Yanic Konan Niederhäuser</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Bradley Beal</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Jahmyl Telfort</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Kobe Sanders</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg 3PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>James Harden</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.666666666666667</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kawhi Leonard</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.333333333333333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Derrick Jones Jr.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Brook Lopez</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bradley Beal</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>John Collins</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bogdan Bogdanović</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Cam Christie</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Kris Dunn</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Nicolas Batum</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chris Paul</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Kobe Brown</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Kobe Sanders</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Yanic Konan Niederhäuser</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Jahmyl Telfort</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ivica Zubac</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Los_Angeles_Clippers_2025-26_stats.xlsx
+++ b/Los_Angeles_Clippers_2025-26_stats.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Points" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,15 +519,20 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Jordan Miller</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Kobe Brown</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Nicolas Batum</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Ivica Zubac</t>
         </is>
@@ -583,12 +589,15 @@
         <v>14</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
         <v>3</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>19</v>
       </c>
     </row>
@@ -646,9 +655,12 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>3</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -706,9 +718,12 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>3</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>21</v>
       </c>
     </row>
@@ -763,12 +778,15 @@
         <v>5</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
         <v>3</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>14</v>
       </c>
     </row>
@@ -826,9 +844,12 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>3</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>14</v>
       </c>
     </row>
@@ -889,6 +910,9 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -946,9 +970,12 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>3</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1009,6 +1036,9 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1066,9 +1096,12 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>9</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>21</v>
       </c>
     </row>
@@ -1123,13 +1156,79 @@
         <v>9</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>9</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
       <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>23</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>11</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6</v>
+      </c>
+      <c r="S12" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1143,7 +1242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1229,15 +1328,20 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Jordan Miller</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Kobe Brown</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Nicolas Batum</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Ivica Zubac</t>
         </is>
@@ -1294,12 +1398,15 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1360,6 +1467,9 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1417,9 +1527,12 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1477,9 +1590,12 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,6 +1656,9 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1600,6 +1719,9 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1654,12 +1776,15 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
         <v>3</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1714,12 +1839,15 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1780,6 +1908,9 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1840,6 +1971,72 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1854,7 +2051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1940,15 +2137,20 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Jordan Miller</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Kobe Brown</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Nicolas Batum</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Ivica Zubac</t>
         </is>
@@ -2005,12 +2207,15 @@
         <v>7</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2065,12 +2270,15 @@
         <v>6</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
       </c>
       <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2128,9 +2336,12 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>3</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2185,12 +2396,15 @@
         <v>7</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
         <v>6</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2248,9 +2462,12 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>5</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2311,6 +2528,9 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>18</v>
       </c>
     </row>
@@ -2365,12 +2585,15 @@
         <v>4</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2425,12 +2648,15 @@
         <v>4</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
       <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2488,9 +2714,12 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>3</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>15</v>
       </c>
     </row>
@@ -2545,13 +2774,79 @@
         <v>7</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
         <v>4</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2565,7 +2860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2651,15 +2946,20 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Jordan Miller</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Kobe Brown</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Nicolas Batum</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Ivica Zubac</t>
         </is>
@@ -2719,9 +3019,12 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2779,9 +3082,12 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2839,9 +3145,12 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2899,9 +3208,12 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2959,9 +3271,12 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3024,6 +3339,9 @@
       <c r="R7" t="n">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3079,9 +3397,12 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3144,6 +3465,9 @@
       <c r="R9" t="n">
         <v>0</v>
       </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3199,9 +3523,12 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>3</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3256,12 +3583,78 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3276,7 +3669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3313,57 +3706,57 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.44444444444444</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ivica Zubac</t>
+          <t>Jordan Miller</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Ivica Zubac</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.9</v>
+        <v>15.18181818181818</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Derrick Jones Jr.</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.8</v>
+        <v>11.90909090909091</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
+          <t>Derrick Jones Jr.</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.166666666666666</v>
+        <v>10.54545454545454</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kris Dunn</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.6</v>
+        <v>8.166666666666666</v>
       </c>
     </row>
     <row r="9">
@@ -3373,7 +3766,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.2</v>
+        <v>7.454545454545454</v>
       </c>
     </row>
     <row r="10">
@@ -3383,76 +3776,86 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.25</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cam Christie</t>
+          <t>Kris Dunn</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>7.181818181818182</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Yanic Konan Niederhäuser</t>
+          <t>Cam Christie</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nicolas Batum</t>
+          <t>Yanic Konan Niederhäuser</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Kobe Sanders</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.25</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kobe Brown</t>
+          <t>Nicolas Batum</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.166666666666667</v>
+        <v>3.181818181818182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kobe Sanders</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Kobe Brown</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2.142857142857143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Jahmyl Telfort</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B18" t="n">
         <v>0.3333333333333333</v>
       </c>
     </row>
@@ -3467,7 +3870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3494,7 +3897,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.333333333333334</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="3">
@@ -3524,7 +3927,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="6">
@@ -3534,7 +3937,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.4</v>
+        <v>2.272727272727273</v>
       </c>
     </row>
     <row r="7">
@@ -3544,7 +3947,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.9</v>
+        <v>1.909090909090909</v>
       </c>
     </row>
     <row r="8">
@@ -3560,27 +3963,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Derrick Jones Jr.</t>
+          <t>Kobe Sanders</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cam Christie</t>
+          <t>Derrick Jones Jr.</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>1.272727272727273</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kobe Brown</t>
+          <t>Cam Christie</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -3590,60 +3993,70 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Jordan Miller</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nicolas Batum</t>
+          <t>Kobe Brown</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kobe Sanders</t>
+          <t>Nicolas Batum</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Brook Lopez</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Yanic Konan Niederhäuser</t>
+          <t>Brook Lopez</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Yanic Konan Niederhäuser</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Jahmyl Telfort</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B18" t="n">
         <v>0.3333333333333333</v>
       </c>
     </row>
@@ -3658,7 +4071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3685,7 +4098,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.6</v>
+        <v>10.45454545454546</v>
       </c>
     </row>
     <row r="3">
@@ -3705,7 +4118,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.222222222222222</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="5">
@@ -3715,13 +4128,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bogdan Bogdanović</t>
+          <t>Jordan Miller</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3731,11 +4144,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kris Dunn</t>
+          <t>Bogdan Bogdanović</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8">
@@ -3745,17 +4158,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.7</v>
+        <v>2.636363636363636</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Brook Lopez</t>
+          <t>Kris Dunn</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.4</v>
+        <v>2.454545454545455</v>
       </c>
     </row>
     <row r="10">
@@ -3765,77 +4178,87 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.2</v>
+        <v>2.363636363636364</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kobe Brown</t>
+          <t>Brook Lopez</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.166666666666667</v>
+        <v>2.272727272727273</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cam Christie</t>
+          <t>Kobe Brown</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Cam Christie</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Yanic Konan Niederhäuser</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
+          <t>Yanic Konan Niederhäuser</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jahmyl Telfort</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Jahmyl Telfort</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Kobe Sanders</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.5</v>
+      <c r="B18" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -3849,7 +4272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3872,31 +4295,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Jordan Miller</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.666666666666667</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.333333333333333</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Derrick Jones Jr.</t>
+          <t>Kawhi Leonard</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.5</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -3906,43 +4329,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.5</v>
+        <v>1.545454545454545</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
+          <t>Bogdan Bogdanović</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.166666666666667</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Derrick Jones Jr.</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.1</v>
+        <v>1.363636363636364</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bogdan Bogdanović</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cam Christie</t>
+          <t>Kobe Sanders</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3952,11 +4375,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kris Dunn</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -3966,53 +4389,53 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Cam Christie</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.625</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kobe Brown</t>
+          <t>Kris Dunn</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kobe Sanders</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Yanic Konan Niederhäuser</t>
+          <t>Kobe Brown</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jahmyl Telfort</t>
+          <t>Yanic Konan Niederhäuser</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -4022,11 +4445,298 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Jahmyl Telfort</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Ivica Zubac</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Team Points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Game Total Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>108</v>
+      </c>
+      <c r="D2" t="n">
+        <v>129</v>
+      </c>
+      <c r="E2" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>129</v>
+      </c>
+      <c r="D3" t="n">
+        <v>102</v>
+      </c>
+      <c r="E3" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>114</v>
+      </c>
+      <c r="D4" t="n">
+        <v>107</v>
+      </c>
+      <c r="E4" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>79</v>
+      </c>
+      <c r="D5" t="n">
+        <v>98</v>
+      </c>
+      <c r="E5" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>126</v>
+      </c>
+      <c r="D6" t="n">
+        <v>124</v>
+      </c>
+      <c r="E6" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>119</v>
+      </c>
+      <c r="D7" t="n">
+        <v>120</v>
+      </c>
+      <c r="E7" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>107</v>
+      </c>
+      <c r="D8" t="n">
+        <v>126</v>
+      </c>
+      <c r="E8" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>102</v>
+      </c>
+      <c r="D9" t="n">
+        <v>115</v>
+      </c>
+      <c r="E9" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>103</v>
+      </c>
+      <c r="D10" t="n">
+        <v>114</v>
+      </c>
+      <c r="E10" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>102</v>
+      </c>
+      <c r="D11" t="n">
+        <v>105</v>
+      </c>
+      <c r="E11" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>116</v>
+      </c>
+      <c r="D12" t="n">
+        <v>130</v>
+      </c>
+      <c r="E12" t="n">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
